--- a/biology/Médecine/Hilaire_Gravez/Hilaire_Gravez.xlsx
+++ b/biology/Médecine/Hilaire_Gravez/Hilaire_Gravez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hilaire Benoit (appelé Benedikt) Gravez, né le 8 avril 1889 à Gijzegem et décédé le 3 septembre 1974 à Alost fut un homme politique belge nationaliste-flamand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gravez fut l'ainé des 4 enfants de Joseph Gravez, chef de gare et Émilie Matthys. Quand son père décède en 1901, la famille déménage à Hofstade. Gravez est influencé par le flamingantisme du père Evarist Bauwens au collège St-Joseph d'Alost. Fin 1908, il cofonde la Katholieke Vlaamsche Studentengilde d'Alost, connu comme les Witte Kaproenen, dont il devient président en 1912. Gravez subit aussi l'influence du père Desiderius Stracke et se rapproche des Daensistes. Étudiant en médecine à Louvain, il cofonde l'association étudiante progressive et flamingante Amicitia. Gravez en devient président de l'aile de Flandre orientale. Il participe à l'action à la frontière linguistique avec entre autres August Borms, à celle en faveur de la flamandisation de l'université de Gand et au combat pour la flamandisation de l'armée. Il lutte pour l'autodétermination de la Flandre.
 Pendant la 1re guerre, Gravez devient médecin auxiliaire et officier. Il restera quatre ans sur le front de l'Yser et joue un rôle important dans la création du parti frontiste. Il crée une ligue des prières avec Cyriel Verschaeve. Il devient membre du comité du secrétariat du Katholieke Vlaamsche Hoogstudenten (SKVH). Il cofonde Heldenhulde (hommage aux héros). Il collabore au quotidien frontiste Uit 't Land van Aelst, comme rédac-chef (1917-18) et siège dans la rédaction de Ons Vaderland, organe du mouvement frontiste. En 1917, il fait partie de la réunion militaire du mouvement. En 1918, il est cependant mis au travail par les services de sécurité belges dans le village français de Fontgombault, après quoi, en novembre, il est transféré à Bruges.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bio sur ODIS</t>
         </is>
